--- a/translations.xlsx
+++ b/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\vscode\homebridge-gree-airconditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E36DD-96C7-4F6A-8B67-0FDDAF8642C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957504EC-C001-4E0D-B042-6B54F79E3B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{12A545F6-ED01-499F-B40F-8257FFC4F2F0}"/>
   </bookViews>
@@ -518,9 +518,6 @@
     <t>Mindig legyen beállítva bekapcsolás után</t>
   </si>
   <si>
-    <t>Toujours définir après la mise sous tension</t>
-  </si>
-  <si>
     <t>Substituir predefinição após ligar</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>Adresse IP de l’appareil (automatique si vide)</t>
   </si>
   <si>
-    <t>Port UDP spécifique à l’appareil (automatique si vide)</t>
-  </si>
-  <si>
     <t>Dirección IP:</t>
   </si>
   <si>
@@ -677,9 +671,6 @@
     <t>Gerätemodell:</t>
   </si>
   <si>
-    <t>Vitesses du ventilateur :</t>
-  </si>
-  <si>
     <t>Modelo del dispositivo:</t>
   </si>
   <si>
@@ -695,12 +686,6 @@
     <t>Maximális célhőmérséklet:</t>
   </si>
   <si>
-    <t>Température cible minimale :</t>
-  </si>
-  <si>
-    <t>Température cible maximale :</t>
-  </si>
-  <si>
     <t>Incremento de temperatura:</t>
   </si>
   <si>
@@ -1025,12 +1010,6 @@
     <t>Remplacer le réglage par défaut après la mise sous tension ou l’arrêt de l’oscillation</t>
   </si>
   <si>
-    <t>Toujours définir après la mise sous tension ou l’arrêt de l’oscillation</t>
-  </si>
-  <si>
-    <t>Réglage par défaut de l’appareil</t>
-  </si>
-  <si>
     <t>Fixé – Maximum</t>
   </si>
   <si>
@@ -1052,9 +1031,6 @@
     <t>Intervalle de recherche :</t>
   </si>
   <si>
-    <t>Intervalle entre les tentatives de détection en secondes (60 s si vide)</t>
-  </si>
-  <si>
     <t>Si la détection automatique est désactivée, seuls les climatiseurs listés dans Appareils seront disponibles</t>
   </si>
   <si>
@@ -1067,27 +1043,9 @@
     <t>Si activé, cet accessoire sera supprimé et ignoré par Maison</t>
   </si>
   <si>
-    <t>Intervalle de mise à jour de l’état :</t>
-  </si>
-  <si>
-    <t>Intervalle en secondes</t>
-  </si>
-  <si>
-    <t>Version du chiffrement du protocole réseau :</t>
-  </si>
-  <si>
-    <t>Laisse sur Automatique. Si cela ne fonctionne pas, sélectionne une version spécifique.</t>
-  </si>
-  <si>
     <t>Modèle de l’appareil :</t>
   </si>
   <si>
-    <t>Température cible minimale (°C)</t>
-  </si>
-  <si>
-    <t>Température cible maximale (°C)</t>
-  </si>
-  <si>
     <t>Correction de température :</t>
   </si>
   <si>
@@ -1100,9 +1058,6 @@
     <t>Capteur de température supplémentaire dans l’app Maison</t>
   </si>
   <si>
-    <t>Quand modifier la position verticale des ailettes</t>
-  </si>
-  <si>
     <t>Commande du ventilateur activée</t>
   </si>
   <si>
@@ -1217,12 +1172,6 @@
     <t>Cuándo modificar la posición vertical de las lamas</t>
   </si>
   <si>
-    <t>Position verticale des ailettes pour les modes chauffage/refroidissement</t>
-  </si>
-  <si>
-    <t>Position verticale des ailettes à définir en mode ventilateur</t>
-  </si>
-  <si>
     <t>Control del ventilador activado</t>
   </si>
   <si>
@@ -1340,9 +1289,6 @@
     <t>Individueller Gerätename. Verwende nur Buchstaben, Zahlen, Leerzeichen und Apostrophe. Mit einem Buchstaben oder einer Zahl beginnen und enden. Emojis werden nicht unterstützt.</t>
   </si>
   <si>
-    <t>Nom personnalisé de l’appareil. Utilise uniquement des caractères alphanumériques, des espaces et des apostrophes. Commencer et se terminer par une lettre ou un chiffre. Les emojis ne sont pas pris en charge.</t>
-  </si>
-  <si>
     <t>Nombre personalizado del dispositivo. Usa solo caracteres alfanuméricos, espacios y apóstrofes. Debe comenzar y terminar con una letra o un número. No se admiten emojis.</t>
   </si>
   <si>
@@ -1355,9 +1301,6 @@
     <t>Trocknung aktiviert</t>
   </si>
   <si>
-    <t>Si activée, la fonction X-FAN s’active automatiquement sur l’appareil lors de l’extinction.</t>
-  </si>
-  <si>
     <t>Si está activada, la función Secar se activa automáticamente en el dispositivo al apagarse</t>
   </si>
   <si>
@@ -1371,6 +1314,63 @@
   </si>
   <si>
     <t>Posición vertical de las lamas para modo ventilador</t>
+  </si>
+  <si>
+    <t>Toujours régler après la mise sous tension</t>
+  </si>
+  <si>
+    <t>Toujours régler après la mise sous tension ou l’arrêt de l’oscillation</t>
+  </si>
+  <si>
+    <t>Paramètres par défaut de l’appareil</t>
+  </si>
+  <si>
+    <t>Intervalle entre les tentatives de détection des appareils en secondes (60 s si vide)</t>
+  </si>
+  <si>
+    <t>Nom personnalisé de l’appareil. Utilisez uniquement des caractères alphanumériques, des espaces et des apostrophes. Commencer et se terminer par une lettre ou un chiffre. Les emojis ne sont pas pris en charge.</t>
+  </si>
+  <si>
+    <t>Port UDP spécifique de l’appareil (automatique si vide)</t>
+  </si>
+  <si>
+    <t>Intervalle de mise à jour du statut :</t>
+  </si>
+  <si>
+    <t>Intervalle de mise à jour en secondes</t>
+  </si>
+  <si>
+    <t>Version de chiffrement du protocole réseau :</t>
+  </si>
+  <si>
+    <t>Laisse sur Automatique. Si cela ne fonctionne pas, sélectionne une version appropriée.</t>
+  </si>
+  <si>
+    <t>Température de consigne minimale :</t>
+  </si>
+  <si>
+    <t>Température de consigne minimale (°C)</t>
+  </si>
+  <si>
+    <t>Température de consigne maximale :</t>
+  </si>
+  <si>
+    <t>Température de consigne maximale (°C)</t>
+  </si>
+  <si>
+    <t>Si activée, la fonction X-FAN s’active automatiquement sur l’appareil lors de l’arrêt.</t>
+  </si>
+  <si>
+    <t>Quand modifier la position verticale les pales</t>
+  </si>
+  <si>
+    <t>Position verticale les pales pour les modes chauffage/refroidissement</t>
+  </si>
+  <si>
+    <t>Position verticale les pales à définir en mode ventilateur</t>
+  </si>
+  <si>
+    <t>Niveaux de vitesses du ventilateur :</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,6 +1405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,11 +1445,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1786,9 +1793,9 @@
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="69.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
@@ -1847,10 +1854,10 @@
         <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
         <v>144</v>
@@ -1870,10 +1877,10 @@
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -1916,19 +1923,19 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="G6" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,19 +1946,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
         <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,16 +1995,16 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,19 +2015,19 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F10" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,16 +2041,16 @@
         <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" t="s">
-        <v>160</v>
+        <v>283</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="F11" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2054,19 +2061,19 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" t="s">
-        <v>329</v>
+        <v>284</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="G12" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2077,19 +2084,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" t="s">
-        <v>330</v>
+        <v>285</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="F13" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2100,19 +2107,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F14" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G14" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,19 +2130,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,19 +2153,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F16" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="G16" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2169,19 +2176,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="G17" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2192,19 +2199,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G18" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2215,19 +2222,19 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" t="s">
-        <v>330</v>
+        <v>285</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2238,19 +2245,19 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G20" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,19 +2268,19 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F21" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2284,19 +2291,19 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F22" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="G22" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,19 +2314,19 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="G23" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,19 +2337,19 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G24" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2353,19 +2360,19 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
         <v>164</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>165</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>166</v>
       </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2376,19 +2383,19 @@
         <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2405,13 +2412,13 @@
         <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2422,19 +2429,19 @@
         <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F28" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="G28" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,19 +2452,19 @@
         <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,19 +2475,19 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
-      </c>
-      <c r="E30" t="s">
-        <v>338</v>
+        <v>292</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="F30" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G30" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,19 +2498,19 @@
         <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" t="s">
-        <v>372</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,19 +2521,19 @@
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E32" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F32" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G32" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2537,19 +2544,19 @@
         <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,19 +2567,19 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" t="s">
         <v>183</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>184</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>185</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>186</v>
-      </c>
-      <c r="G34" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2583,19 +2590,19 @@
         <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2606,19 +2613,19 @@
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F36" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2629,19 +2636,19 @@
         <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2652,19 +2659,19 @@
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>433</v>
-      </c>
-      <c r="E38" t="s">
-        <v>434</v>
+        <v>416</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="F38" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="G38" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,19 +2705,19 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2721,19 +2728,19 @@
         <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2744,19 +2751,19 @@
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,13 +2780,13 @@
         <v>53</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,19 +2797,19 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" t="s">
-        <v>201</v>
+        <v>297</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,19 +2820,19 @@
         <v>89</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>343</v>
+        <v>298</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2836,19 +2843,19 @@
         <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
-      </c>
-      <c r="E46" t="s">
-        <v>344</v>
+        <v>299</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2859,19 +2866,19 @@
         <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>345</v>
+        <v>300</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,19 +2889,19 @@
         <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" t="s">
-        <v>346</v>
+        <v>301</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,19 +2912,19 @@
         <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2928,19 +2935,19 @@
         <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>213</v>
+        <v>302</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,19 +2958,19 @@
         <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>219</v>
+        <v>303</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,19 +2981,19 @@
         <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
-      </c>
-      <c r="E52" t="s">
-        <v>348</v>
+        <v>304</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="F52" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G52" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,19 +3004,19 @@
         <v>105</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>220</v>
+        <v>305</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,19 +3027,19 @@
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D54" t="s">
-        <v>311</v>
-      </c>
-      <c r="E54" t="s">
-        <v>349</v>
+        <v>306</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="F54" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3043,19 +3050,19 @@
         <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,19 +3073,19 @@
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E56" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G56" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3089,19 +3096,19 @@
         <v>113</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,19 +3119,19 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D58" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E58" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G58" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,19 +3142,19 @@
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="G59" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,19 +3165,19 @@
         <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
-      </c>
-      <c r="E60" t="s">
-        <v>439</v>
+        <v>419</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G60" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,19 +3188,19 @@
         <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,19 +3211,19 @@
         <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D62" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E62" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F62" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G62" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,19 +3234,19 @@
         <v>125</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,19 +3257,19 @@
         <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>317</v>
-      </c>
-      <c r="E64" t="s">
-        <v>354</v>
+        <v>312</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="G64" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,19 +3280,19 @@
         <v>129</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,22 +3300,22 @@
         <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>318</v>
-      </c>
-      <c r="E66" t="s">
-        <v>393</v>
+        <v>313</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="G66" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3319,19 +3326,19 @@
         <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E67" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F67" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="G67" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,19 +3349,19 @@
         <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E68" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="G68" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3365,19 +3372,19 @@
         <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="G69" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,19 +3395,19 @@
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
-      </c>
-      <c r="E70" t="s">
-        <v>394</v>
+        <v>316</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="F70" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G70" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,19 +3418,19 @@
         <v>140</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,22 +3438,22 @@
         <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E72" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F72" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="G72" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\vscode\homebridge-gree-airconditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957504EC-C001-4E0D-B042-6B54F79E3B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3120A0B-2895-4A88-9255-5FAE31E3E769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{12A545F6-ED01-499F-B40F-8257FFC4F2F0}"/>
   </bookViews>
@@ -1211,9 +1211,6 @@
     <t>Fixo – Mínimo</t>
   </si>
   <si>
-    <t>Porta UDP da bridge usada para deteção de dispositivos (automática se vazia)</t>
-  </si>
-  <si>
     <t>Intervalo de pesquisa:</t>
   </si>
   <si>
@@ -1371,6 +1368,9 @@
   </si>
   <si>
     <t>Niveaux de vitesses du ventilateur :</t>
+  </si>
+  <si>
+    <t>Porta UDP da ponte usada para deteção de dispositivos (automática se vazia)</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF4BE7-6125-49FF-9193-D3853B48D530}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2044,7 +2046,7 @@
         <v>283</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F11" t="s">
         <v>346</v>
@@ -2067,7 +2069,7 @@
         <v>284</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F12" t="s">
         <v>347</v>
@@ -2090,7 +2092,7 @@
         <v>285</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F13" t="s">
         <v>348</v>
@@ -2228,7 +2230,7 @@
         <v>285</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F19" t="s">
         <v>348</v>
@@ -2440,8 +2442,8 @@
       <c r="F28" t="s">
         <v>354</v>
       </c>
-      <c r="G28" t="s">
-        <v>391</v>
+      <c r="G28" s="4" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2464,7 +2466,7 @@
         <v>355</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2481,13 +2483,13 @@
         <v>292</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F30" t="s">
         <v>356</v>
       </c>
       <c r="G30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,7 +2535,7 @@
         <v>358</v>
       </c>
       <c r="G32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2625,7 +2627,7 @@
         <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,16 +2664,16 @@
         <v>255</v>
       </c>
       <c r="D38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F38" t="s">
         <v>416</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>417</v>
-      </c>
-      <c r="G38" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2717,7 +2719,7 @@
         <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,7 +2805,7 @@
         <v>297</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -2826,13 +2828,13 @@
         <v>298</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>361</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,13 +2851,13 @@
         <v>299</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F46" t="s">
         <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2872,7 +2874,7 @@
         <v>300</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>207</v>
@@ -2895,13 +2897,13 @@
         <v>301</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F48" t="s">
         <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,13 +2943,13 @@
         <v>302</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2964,13 +2966,13 @@
         <v>303</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>364</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2987,13 +2989,13 @@
         <v>304</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F52" t="s">
         <v>365</v>
       </c>
       <c r="G52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,13 +3012,13 @@
         <v>305</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>366</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3033,13 +3035,13 @@
         <v>306</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F54" t="s">
         <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,7 +3087,7 @@
         <v>369</v>
       </c>
       <c r="G56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3131,7 +3133,7 @@
         <v>373</v>
       </c>
       <c r="G58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3147,7 @@
         <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E59" t="s">
         <v>218</v>
@@ -3154,7 +3156,7 @@
         <v>374</v>
       </c>
       <c r="G59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,16 +3170,16 @@
         <v>268</v>
       </c>
       <c r="D60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F60" t="s">
+        <v>420</v>
+      </c>
+      <c r="G60" t="s">
         <v>421</v>
-      </c>
-      <c r="G60" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3223,7 +3225,7 @@
         <v>375</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,13 +3265,13 @@
         <v>312</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F64" t="s">
         <v>377</v>
       </c>
       <c r="G64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,13 +3311,13 @@
         <v>313</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,7 +3340,7 @@
         <v>378</v>
       </c>
       <c r="G67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,7 +3363,7 @@
         <v>379</v>
       </c>
       <c r="G68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3384,7 +3386,7 @@
         <v>231</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3401,13 +3403,13 @@
         <v>316</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F70" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,7 +3432,7 @@
         <v>380</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3453,7 +3455,7 @@
         <v>381</v>
       </c>
       <c r="G72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\vscode\homebridge-gree-airconditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3120A0B-2895-4A88-9255-5FAE31E3E769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3DD2D-939E-4BAA-A9D5-EF7FC829B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{12A545F6-ED01-499F-B40F-8257FFC4F2F0}"/>
   </bookViews>
@@ -713,12 +713,6 @@
     <t>Függőleges pozíció:</t>
   </si>
   <si>
-    <t>Vertikale Position:</t>
-  </si>
-  <si>
-    <t>Vertikale Lüfterposition:</t>
-  </si>
-  <si>
     <t>Modifier la position verticale :</t>
   </si>
   <si>
@@ -881,36 +875,6 @@
     <t>Eigenständiges Zubehör</t>
   </si>
   <si>
-    <t>Standard nach dem Einschalten überschreiben</t>
-  </si>
-  <si>
-    <t>Standard nach dem Einschalten oder Deaktivieren der Schwenkbewegung überschreiben</t>
-  </si>
-  <si>
-    <t>Immer nach dem Einschalten festlegen</t>
-  </si>
-  <si>
-    <t>Immer nach dem Einschalten oder Deaktivieren der Schwenkbewegung festlegen</t>
-  </si>
-  <si>
-    <t>Gerätestandard</t>
-  </si>
-  <si>
-    <t>Fixiert – Höchste</t>
-  </si>
-  <si>
-    <t>Fixiert – Hoch</t>
-  </si>
-  <si>
-    <t>Fixiert – Mittel</t>
-  </si>
-  <si>
-    <t>Fixiert – Niedrig</t>
-  </si>
-  <si>
-    <t>Fixiert – Niedrigste</t>
-  </si>
-  <si>
     <t>UDP-Port der Bridge zur Geräteerkennung (leer = automatisch)</t>
   </si>
   <si>
@@ -926,18 +890,12 @@
     <t>Wenn aktiviert, wird dieses Gerät entfernt und von Apple Home ignoriert</t>
   </si>
   <si>
-    <t>IP-Adresse des Geräts (leer = automatisch)</t>
-  </si>
-  <si>
     <t>Gerätespezifischer UDP-Port (leer = automatisch)</t>
   </si>
   <si>
     <t>Aktualisierungsintervall:</t>
   </si>
   <si>
-    <t>Intervall in Sekunden</t>
-  </si>
-  <si>
     <t>Version der Netzwerkverschlüsselung:</t>
   </si>
   <si>
@@ -965,30 +923,15 @@
     <t>Kalibrierung des Temperatursensors (°C)</t>
   </si>
   <si>
-    <t>Temperaturschrittweite:</t>
-  </si>
-  <si>
     <t>Zusätzlicher Temperatursensor in der Home-App</t>
   </si>
   <si>
-    <t>Vertikale Position anpassen:</t>
-  </si>
-  <si>
-    <t>Wann die vertikale Lamellenposition geändert wird</t>
-  </si>
-  <si>
-    <t>Vertikale Lamellenposition für Heiz-/Kühlmodus</t>
-  </si>
-  <si>
     <t>Lüftersteuerung aktiviert</t>
   </si>
   <si>
     <t>Wenn aktiviert, wird eine Lüftersteuerung zur Home-App hinzugefügt</t>
   </si>
   <si>
-    <t>Vertikale Lamellenposition für den Lüftermodus</t>
-  </si>
-  <si>
     <t>Ruhezeit:</t>
   </si>
   <si>
@@ -1151,9 +1094,6 @@
     <t>Érvényes értékek: 0,5 (°F) és 1 (°C)&lt;BR /&gt;(Ha üres vagy érvénytelen, a Homebridge beállításai alapján kerül kiszámításra)</t>
   </si>
   <si>
-    <t>Gültige Werte: 0,5 (°F) und 1 (°C)&lt;BR /&gt;(Wenn leer oder ungültig, wird sie anhand der Homebridge-Einstellungen berechnet)</t>
-  </si>
-  <si>
     <t>Valeurs valides : 0,5 (°F) et 1 (°C)&lt;BR /&gt;(Si vide ou invalide, elle sera calculée selon les réglages de Homebridge)</t>
   </si>
   <si>
@@ -1283,9 +1223,6 @@
     <t>Intervalo em que o dispositivo não emite sons (formato: HH:MM-HH:MM, por exemplo: 22:00-08:30)</t>
   </si>
   <si>
-    <t>Individueller Gerätename. Verwende nur Buchstaben, Zahlen, Leerzeichen und Apostrophe. Mit einem Buchstaben oder einer Zahl beginnen und enden. Emojis werden nicht unterstützt.</t>
-  </si>
-  <si>
     <t>Nombre personalizado del dispositivo. Usa solo caracteres alfanuméricos, espacios y apóstrofes. Debe comenzar y terminar con una letra o un número. No se admiten emojis.</t>
   </si>
   <si>
@@ -1371,6 +1308,69 @@
   </si>
   <si>
     <t>Porta UDP da ponte usada para deteção de dispositivos (automática se vazia)</t>
+  </si>
+  <si>
+    <t>Änderung der Grundeinstellung nach dem Einschalten</t>
+  </si>
+  <si>
+    <t>Änderung der Grundeinstellung nach dem Einschalten oder beim Ausschalten der Schwenkbewegung</t>
+  </si>
+  <si>
+    <t>Einstellung gilt immer nach dem Einschalten</t>
+  </si>
+  <si>
+    <t>Einstellung gilt immer nach dem Einschalten oder Ausschalten der Schwenkbewegung</t>
+  </si>
+  <si>
+    <t>Grundeinstellung des Gerätes</t>
+  </si>
+  <si>
+    <t>Fest – Hoch</t>
+  </si>
+  <si>
+    <t>Fest – Mittel</t>
+  </si>
+  <si>
+    <t>Fest – Niedrig</t>
+  </si>
+  <si>
+    <t>Fest – Minimum</t>
+  </si>
+  <si>
+    <t>Individueller Gerätename. Nur Buchstaben, Zahlen, Leer- und Apostrophzeichen verwenden. Mit einem Buchstaben oder einer Zahl beginnen und enden. Emojis werden nicht unterstützt.</t>
+  </si>
+  <si>
+    <t>IP-Adresse des Gerätes (leer = automatisch)</t>
+  </si>
+  <si>
+    <t>Aktualisierungsintervall in Sekunden</t>
+  </si>
+  <si>
+    <t>Größe der Temperaturstufen:</t>
+  </si>
+  <si>
+    <t>Gültige Werte: 0,5 (°F) und 1 (°C)&lt;BR /&gt;(Wenn leer oder ungültig, erfolgt die Berechnung anhand der Homebridge-Einstellungen)</t>
+  </si>
+  <si>
+    <t>Senkrechte Position anpassen:</t>
+  </si>
+  <si>
+    <t>Wann soll die senkrechte Lamellenposition geändert werden</t>
+  </si>
+  <si>
+    <t>Senkrechte Position:</t>
+  </si>
+  <si>
+    <t>Senkrechte Lamellenposition für Heiz-/Kühlmodus</t>
+  </si>
+  <si>
+    <t>Senkrechte Lüfterposition:</t>
+  </si>
+  <si>
+    <t>Senkrechte Lamellenposition für den Lüftermodus</t>
+  </si>
+  <si>
+    <t>Fest – Maximum</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,13 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1787,16 +1793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF4BE7-6125-49FF-9193-D3853B48D530}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
@@ -1856,10 +1860,10 @@
         <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>144</v>
@@ -1879,10 +1883,10 @@
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -1925,19 +1929,19 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,19 +1952,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
         <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,14 +2000,14 @@
       <c r="C9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" t="s">
-        <v>281</v>
+      <c r="D9" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
         <v>160</v>
@@ -2017,19 +2021,19 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10" t="s">
-        <v>282</v>
+        <v>239</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2042,14 +2046,14 @@
       <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="D11" t="s">
-        <v>283</v>
+      <c r="D11" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F11" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
         <v>161</v>
@@ -2063,19 +2067,19 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" t="s">
-        <v>284</v>
+        <v>240</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,16 +2090,16 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" t="s">
-        <v>285</v>
+        <v>241</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F13" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
         <v>162</v>
@@ -2109,19 +2113,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" t="s">
-        <v>286</v>
+        <v>242</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="F14" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G14" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,19 +2136,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" t="s">
-        <v>287</v>
+        <v>243</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G15" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,19 +2159,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" t="s">
-        <v>288</v>
+        <v>244</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G16" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,19 +2182,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" t="s">
-        <v>289</v>
+        <v>245</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="G17" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2201,19 +2205,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" t="s">
-        <v>290</v>
+        <v>246</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G18" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,16 +2228,16 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" t="s">
-        <v>285</v>
+        <v>241</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G19" t="s">
         <v>162</v>
@@ -2247,19 +2251,19 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" t="s">
-        <v>286</v>
+        <v>242</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,19 +2274,19 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" t="s">
-        <v>287</v>
+        <v>243</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,19 +2297,19 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" t="s">
-        <v>288</v>
+        <v>244</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G22" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2316,19 +2320,19 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" t="s">
-        <v>289</v>
+        <v>245</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="G23" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,19 +2343,19 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" t="s">
-        <v>290</v>
+        <v>246</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="E24" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G24" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2431,19 +2435,19 @@
         <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2454,19 +2458,19 @@
         <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2477,19 +2481,19 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G30" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2500,7 +2504,7 @@
         <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D31" t="s">
         <v>175</v>
@@ -2509,7 +2513,7 @@
         <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="G31" t="s">
         <v>177</v>
@@ -2523,19 +2527,19 @@
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G32" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2615,19 +2619,19 @@
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="F36" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,7 +2648,7 @@
         <v>190</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>192</v>
@@ -2661,19 +2665,19 @@
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" t="s">
-        <v>415</v>
+        <v>253</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="F38" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G38" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,19 +2711,19 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G40" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,10 +2757,10 @@
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
-      </c>
-      <c r="D42" t="s">
-        <v>296</v>
+        <v>255</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="E42" t="s">
         <v>199</v>
@@ -2799,13 +2803,13 @@
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -2825,16 +2829,16 @@
         <v>206</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,19 +2849,19 @@
         <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
-      </c>
-      <c r="D46" t="s">
-        <v>299</v>
+        <v>257</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G46" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,13 +2872,13 @@
         <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>207</v>
@@ -2891,19 +2895,19 @@
         <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F48" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="G48" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,7 +2924,7 @@
         <v>210</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>211</v>
@@ -2937,19 +2941,19 @@
         <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2963,16 +2967,16 @@
         <v>214</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,19 +2987,19 @@
         <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D52" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="F52" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="G52" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3009,16 +3013,16 @@
         <v>215</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,19 +3033,19 @@
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G54" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,19 +3056,19 @@
         <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,19 +3079,19 @@
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D56" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="G56" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,13 +3102,13 @@
         <v>113</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>309</v>
+        <v>265</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>216</v>
@@ -3121,19 +3125,19 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>370</v>
-      </c>
-      <c r="D58" t="s">
-        <v>371</v>
+        <v>351</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="E58" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="F58" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="G58" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3147,16 +3151,16 @@
         <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E59" t="s">
         <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="G59" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3167,19 +3171,19 @@
         <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
+        <v>397</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="G60" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,19 +3217,19 @@
         <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E62" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="G62" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3238,17 +3242,17 @@
       <c r="C63" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>311</v>
+      <c r="D63" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,19 +3263,19 @@
         <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
-      </c>
-      <c r="D64" t="s">
-        <v>312</v>
+        <v>268</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="F64" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="G64" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,17 +3288,17 @@
       <c r="C65" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>225</v>
+      <c r="D65" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="G65" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,22 +3306,22 @@
         <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
-      </c>
-      <c r="D66" t="s">
-        <v>313</v>
+        <v>269</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="F66" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G66" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,19 +3332,19 @@
         <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D67" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F67" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G67" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3351,19 +3355,19 @@
         <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E68" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F68" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="G68" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,19 +3378,19 @@
         <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>226</v>
+        <v>273</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="G69" s="3" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3397,19 +3401,19 @@
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" t="s">
-        <v>316</v>
+        <v>274</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="F70" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="G70" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3420,19 +3424,19 @@
         <v>140</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,22 +3444,22 @@
         <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="G72" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\vscode\homebridge-gree-airconditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3DD2D-939E-4BAA-A9D5-EF7FC829B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F1380E-FEC8-4516-B4F5-07210AB5D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{12A545F6-ED01-499F-B40F-8257FFC4F2F0}"/>
   </bookViews>
@@ -1067,9 +1067,6 @@
     <t>Intervalo de actualización del estado:</t>
   </si>
   <si>
-    <t>Intervalo en segundos</t>
-  </si>
-  <si>
     <t>Déjalo en Automático. Si no funciona, selecciona una versión específica.</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
     <t>Modificar posición vertical:</t>
   </si>
   <si>
-    <t>Cuándo modificar la posición vertical de las lamas</t>
-  </si>
-  <si>
     <t>Control del ventilador activado</t>
   </si>
   <si>
@@ -1244,12 +1238,6 @@
     <t>Secagem ativado</t>
   </si>
   <si>
-    <t>Posición vertical de las lamas para modos de calefacción/refrigeración</t>
-  </si>
-  <si>
-    <t>Posición vertical de las lamas para modo ventilador</t>
-  </si>
-  <si>
     <t>Toujours régler après la mise sous tension</t>
   </si>
   <si>
@@ -1371,6 +1359,18 @@
   </si>
   <si>
     <t>Fest – Maximum</t>
+  </si>
+  <si>
+    <t>Intervalo de actualización (en segundos)</t>
+  </si>
+  <si>
+    <t>Cuándo modificar la posición de oscilación vertical</t>
+  </si>
+  <si>
+    <t>Posición de oscilación vertical para los modos de calor/frío</t>
+  </si>
+  <si>
+    <t>Posición de oscilación vertical para el modo ventilador</t>
   </si>
 </sst>
 </file>
@@ -1455,13 +1455,7 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1797,12 +1791,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1941,7 +1935,7 @@
         <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1964,7 +1958,7 @@
         <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,7 +1995,7 @@
         <v>158</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E9" t="s">
         <v>303</v>
@@ -2024,7 +2018,7 @@
         <v>239</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E10" t="s">
         <v>304</v>
@@ -2033,7 +2027,7 @@
         <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,10 +2041,10 @@
         <v>159</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F11" t="s">
         <v>327</v>
@@ -2070,16 +2064,16 @@
         <v>240</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F12" t="s">
         <v>328</v>
       </c>
       <c r="G12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,10 +2087,10 @@
         <v>241</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F13" t="s">
         <v>329</v>
@@ -2116,7 +2110,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E14" t="s">
         <v>305</v>
@@ -2125,7 +2119,7 @@
         <v>330</v>
       </c>
       <c r="G14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,7 +2133,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
         <v>306</v>
@@ -2148,7 +2142,7 @@
         <v>331</v>
       </c>
       <c r="G15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,7 +2156,7 @@
         <v>244</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
         <v>307</v>
@@ -2171,7 +2165,7 @@
         <v>332</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,7 +2179,7 @@
         <v>245</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
         <v>308</v>
@@ -2194,7 +2188,7 @@
         <v>333</v>
       </c>
       <c r="G17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,7 +2202,7 @@
         <v>246</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
         <v>309</v>
@@ -2217,7 +2211,7 @@
         <v>334</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,10 +2225,10 @@
         <v>241</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F19" t="s">
         <v>329</v>
@@ -2254,7 +2248,7 @@
         <v>242</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E20" t="s">
         <v>305</v>
@@ -2263,7 +2257,7 @@
         <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,7 +2271,7 @@
         <v>243</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E21" t="s">
         <v>306</v>
@@ -2286,7 +2280,7 @@
         <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,7 +2294,7 @@
         <v>244</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
         <v>307</v>
@@ -2309,7 +2303,7 @@
         <v>332</v>
       </c>
       <c r="G22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,7 +2317,7 @@
         <v>245</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E23" t="s">
         <v>308</v>
@@ -2332,7 +2326,7 @@
         <v>333</v>
       </c>
       <c r="G23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,7 +2340,7 @@
         <v>246</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E24" t="s">
         <v>309</v>
@@ -2355,7 +2349,7 @@
         <v>334</v>
       </c>
       <c r="G24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,7 +2441,7 @@
         <v>335</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2470,7 +2464,7 @@
         <v>336</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2487,13 +2481,13 @@
         <v>280</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F30" t="s">
         <v>337</v>
       </c>
       <c r="G30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,7 +2533,7 @@
         <v>339</v>
       </c>
       <c r="G32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2631,7 +2625,7 @@
         <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,16 +2662,16 @@
         <v>253</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,7 +2717,7 @@
         <v>341</v>
       </c>
       <c r="G40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,7 +2754,7 @@
         <v>255</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E42" t="s">
         <v>199</v>
@@ -2809,7 +2803,7 @@
         <v>284</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -2832,13 +2826,13 @@
         <v>285</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>342</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,16 +2846,16 @@
         <v>257</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F46" t="s">
-        <v>343</v>
+        <v>407</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2878,7 +2872,7 @@
         <v>286</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>207</v>
@@ -2901,13 +2895,13 @@
         <v>287</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2947,13 +2941,13 @@
         <v>288</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2970,13 +2964,13 @@
         <v>289</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2993,13 +2987,13 @@
         <v>290</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3016,13 +3010,13 @@
         <v>291</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3039,13 +3033,13 @@
         <v>292</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,10 +3059,10 @@
         <v>317</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3088,10 +3082,10 @@
         <v>318</v>
       </c>
       <c r="F56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,7 +3099,7 @@
         <v>265</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>319</v>
@@ -3125,19 +3119,19 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E58" t="s">
         <v>351</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>352</v>
       </c>
-      <c r="F58" t="s">
-        <v>353</v>
-      </c>
       <c r="G58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,16 +3145,16 @@
         <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E59" t="s">
         <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,16 +3168,16 @@
         <v>266</v>
       </c>
       <c r="D60" t="s">
+        <v>395</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F60" t="s">
         <v>397</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F60" t="s">
-        <v>399</v>
-      </c>
       <c r="G60" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,10 +3220,10 @@
         <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,13 +3237,13 @@
         <v>223</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>225</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>230</v>
@@ -3266,16 +3260,16 @@
         <v>268</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F64" t="s">
-        <v>357</v>
+        <v>415</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="G64" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,7 +3283,7 @@
         <v>224</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>226</v>
@@ -3312,16 +3306,16 @@
         <v>269</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F66" t="s">
-        <v>402</v>
+        <v>416</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="G66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,10 +3335,10 @@
         <v>321</v>
       </c>
       <c r="F67" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,10 +3358,10 @@
         <v>322</v>
       </c>
       <c r="F68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,7 +3375,7 @@
         <v>273</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>227</v>
@@ -3390,7 +3384,7 @@
         <v>229</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3404,16 +3398,16 @@
         <v>274</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F70" t="s">
-        <v>403</v>
+        <v>417</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="G70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,10 +3427,10 @@
         <v>234</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3456,10 +3450,10 @@
         <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
